--- a/tspi/ciclo-3/20106065.xlsx
+++ b/tspi/ciclo-3/20106065.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -87,7 +87,40 @@
     <t>Realize algunos cambios al plan del proyecto.</t>
   </si>
   <si>
-    <t>Elabore la primera parte del plan del ciclo #3.</t>
+    <t>Elaboré la primera parte del plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Asigné las tareas de la primera parte del plan del ciclo #3.</t>
+  </si>
+  <si>
+    <t>Elaborar el plan del ciclo #3 de TSPi.</t>
+  </si>
+  <si>
+    <t>Completar el mockup de la vista de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para la asignación de la disponibilidad de los recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el mockup de la vista para ver la calendarización de uno o más recursos.</t>
+  </si>
+  <si>
+    <t>Elaborar el pseudocódigo del algoritmo de calendarización.</t>
+  </si>
+  <si>
+    <t>Elaborar el algoritmo de construcción del grafo a partir del archivo csv.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio global de la aplicación.</t>
+  </si>
+  <si>
+    <t>Crear la agenda para la reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Reunión #4 con el cliente.</t>
+  </si>
+  <si>
+    <t>Configurar el repositorio local de la aplicación.</t>
   </si>
 </sst>
 </file>
@@ -610,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -662,19 +695,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1013">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+    <row r="2" spans="1:1013" ht="25.5">
+      <c r="A2" s="8">
+        <v>46</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11">
+        <v>6</v>
+      </c>
       <c r="G2" s="8"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -1677,19 +1732,41 @@
       <c r="ALX2" s="4"/>
       <c r="ALY2" s="4"/>
     </row>
-    <row r="3" spans="1:1013">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
+    <row r="3" spans="1:1013" ht="25.5">
+      <c r="A3" s="8">
+        <v>47</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>6</v>
+      </c>
       <c r="G3" s="8"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -2693,18 +2770,40 @@
       <c r="ALY3" s="4"/>
     </row>
     <row r="4" spans="1:1013">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="8">
+        <v>48</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6</v>
+      </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -3707,19 +3806,41 @@
       <c r="ALX4" s="4"/>
       <c r="ALY4" s="4"/>
     </row>
-    <row r="5" spans="1:1013">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+    <row r="5" spans="1:1013" ht="25.5">
+      <c r="A5" s="8">
+        <v>49</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11">
+        <v>6</v>
+      </c>
       <c r="G5" s="10"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -4722,19 +4843,41 @@
       <c r="ALX5" s="4"/>
       <c r="ALY5" s="4"/>
     </row>
-    <row r="6" spans="1:1013">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:1013" ht="38.25">
+      <c r="A6" s="8">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6</v>
+      </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -5737,19 +5880,41 @@
       <c r="ALX6" s="4"/>
       <c r="ALY6" s="4"/>
     </row>
-    <row r="7" spans="1:1013">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:1013" ht="25.5">
+      <c r="A7" s="8">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -6752,19 +6917,41 @@
       <c r="ALX7" s="4"/>
       <c r="ALY7" s="4"/>
     </row>
-    <row r="8" spans="1:1013">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:1013" ht="25.5">
+      <c r="A8" s="8">
+        <v>52</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>6</v>
+      </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.5</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -7767,19 +7954,41 @@
       <c r="ALX8" s="4"/>
       <c r="ALY8" s="4"/>
     </row>
-    <row r="9" spans="1:1013">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
+    <row r="9" spans="1:1013" ht="25.5">
+      <c r="A9" s="8">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -8782,19 +8991,41 @@
       <c r="ALX9" s="4"/>
       <c r="ALY9" s="4"/>
     </row>
-    <row r="10" spans="1:1013">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:1013" ht="25.5">
+      <c r="A10" s="8">
+        <v>54</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -9797,19 +10028,41 @@
       <c r="ALX10" s="4"/>
       <c r="ALY10" s="4"/>
     </row>
-    <row r="11" spans="1:1013">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
+    <row r="11" spans="1:1013" ht="25.5">
+      <c r="A11" s="8">
+        <v>55</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>6</v>
+      </c>
       <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -10813,18 +11066,40 @@
       <c r="ALY11" s="4"/>
     </row>
     <row r="12" spans="1:1013">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="8">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>6</v>
+      </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -11827,19 +12102,41 @@
       <c r="ALX12" s="4"/>
       <c r="ALY12" s="4"/>
     </row>
-    <row r="13" spans="1:1013">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+    <row r="13" spans="1:1013" ht="25.5">
+      <c r="A13" s="8">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>7</v>
+      </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -17125,8 +17422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
@@ -17184,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F5" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F6" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -17273,11 +17570,31 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="26"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="26">
+        <v>41940</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="E6" s="21">
+        <v>13</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G6" s="20">
+        <v>48</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26"/>

--- a/tspi/ciclo-3/20106065.xlsx
+++ b/tspi/ciclo-3/20106065.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400"/>
+    <workbookView xWindow="9660" yWindow="-45" windowWidth="9540" windowHeight="7365" tabRatio="400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ALY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -17422,8 +17422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="12.75"/>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="15">
-        <f t="shared" ref="F2:F6" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
+        <f t="shared" ref="F2:F7" si="0">((HOUR(D2)-HOUR(C2))*60)+(MINUTE(D2)-MINUTE(C2))-E2</f>
         <v>27</v>
       </c>
       <c r="G2" s="20">
@@ -17597,11 +17597,31 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="26">
+        <v>41941</v>
+      </c>
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="20">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26"/>
